--- a/00_KorREFramework/Data/Config.xlsx
+++ b/00_KorREFramework/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\00_NonQueue_REFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\00_KorREFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F05842C-D9A5-4B3C-B388-3D148BBBE16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571C3DBD-177D-473B-958F-DC65D8E48026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6615" yWindow="-22845" windowWidth="17895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6435" yWindow="-20625" windowWidth="17895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,6 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -92,9 +88,6 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
     <t>MaxConsecutiveSystemExceptions</t>
   </si>
   <si>
@@ -114,10 +107,6 @@
   </si>
   <si>
     <t>시스템에러 최대설정개수에 도달시 에러 메시지</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>프로세스 이름</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -220,8 +209,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">OrchestratorQueueFolder
-</t>
+    <t>프로세스_이름</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오케스트레이터 큐 이름 (UseQueue를 TRUE로 설정할 것)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오케스트레이터 폴더 이름 (UseQueue를 TRUE로 설정할 것)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -670,51 +670,40 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="49.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="49.5">
-      <c r="A4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -722,10 +711,21 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -788,13 +788,13 @@
     </row>
     <row r="2" spans="1:26" ht="49.5">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="49.5">
@@ -805,128 +805,128 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="49.5">
       <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="8" spans="1:26" ht="49.5">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="49.5">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/00_KorREFramework/Data/Config.xlsx
+++ b/00_KorREFramework/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\00_KorREFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571C3DBD-177D-473B-958F-DC65D8E48026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C7C58-DC57-42FC-8624-048CAE2A15DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6435" yWindow="-20625" windowWidth="17895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -221,15 +221,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>오케스트레이터 폴더 이름 (UseQueue를 TRUE로 설정할 것)</t>
-    <phoneticPr fontId="1"/>
+    <t>오케스트레이터 폴더 이름</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alpaco8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Account_ACME</t>
+  </si>
+  <si>
+    <t>useAssets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mail_jwlee</t>
+  </si>
+  <si>
+    <t>Mail_dexter_gmail</t>
+  </si>
+  <si>
+    <t>Mail_dexter_naver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -253,6 +273,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -285,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,6 +339,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="43" style="5" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" style="4" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="4" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="4"/>
@@ -680,6 +721,9 @@
       <c r="A3" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>54</v>
       </c>
@@ -706,26 +750,103 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:26">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
+    <row r="12" spans="1:26">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -737,15 +858,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37" style="4" customWidth="1"/>
     <col min="2" max="2" width="51" style="5" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" style="4" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="4" customWidth="1"/>
@@ -802,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>42</v>
@@ -830,7 +951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="49.5">
+    <row r="7" spans="1:26" ht="66">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -850,83 +971,6 @@
       </c>
       <c r="C8" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -938,59 +982,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="4" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="4"/>
+    <col min="1" max="1" width="25.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>